--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/42/word_level_predictions_42.xlsx
@@ -3674,416 +3674,416 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Aircraft</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>3</v>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>4</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>4</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>4</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>5</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>4</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>6</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>4</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>7</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>4</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>8</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>4</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>9</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G95" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -7626,470 +7626,470 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" t="n">
         <v>9</v>
       </c>
-      <c r="B139" s="2" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C139" s="2" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" t="n">
         <v>10</v>
       </c>
-      <c r="E139" s="2" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" s="2" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>9</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" t="n">
         <v>11</v>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>9</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" t="n">
         <v>12</v>
       </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>9</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>13</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>9</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>14</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" t="n">
         <v>9</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" t="n">
         <v>15</v>
       </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" t="n">
         <v>9</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" t="n">
         <v>16</v>
       </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>9</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>17</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>9</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>18</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G196" s="2" t="b">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="F197" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G197" s="2" t="b">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11549,237 +11549,237 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>13</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>8</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>13</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>installation</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>9</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>13</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>10</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>13</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>interference</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>11</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B215" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C215" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D215" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B216" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C216" s="2" t="inlineStr">
-        <is>
-          <t>installation</t>
-        </is>
-      </c>
-      <c r="D216" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B217" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C217" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D217" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>interference</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E218" s="2" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem4/42/word_level_predictions_42.xlsx
@@ -3674,416 +3674,416 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" t="n">
         <v>4</v>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" t="n">
         <v>4</v>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
         <v>4</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" t="n">
         <v>5</v>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
         <v>4</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" t="n">
         <v>6</v>
       </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
         <v>4</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>7</v>
       </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>4</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" t="n">
         <v>9</v>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5321,11 +5321,11 @@
         </is>
       </c>
       <c r="I94" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K94" s="2" t="b">
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G95" s="2" t="b">
@@ -5373,11 +5373,11 @@
         </is>
       </c>
       <c r="I95" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K95" s="2" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5425,11 +5425,11 @@
         </is>
       </c>
       <c r="I96" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K96" s="2" t="b">
@@ -7626,470 +7626,470 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" s="2" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="E147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G196" s="2" t="b">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="L196" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="F197" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G197" s="2" t="b">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="L197" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G214" t="b">
@@ -11573,213 +11573,213 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>installation</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
